--- a/Backlog Kairos.xlsx
+++ b/Backlog Kairos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.santos_sankh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.santos_sankh\Desktop\kairos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118034D5-6FD5-4256-9B4B-884570FA6FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE063E5-5DD4-44A7-92F1-920C44582574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BBEEEC4-CEBE-45CD-B774-85F745F54761}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>BACKLOG KAIROS SYSTEM</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Transformar a tela financeiro em um UX mais simples para Mobile</t>
+  </si>
+  <si>
+    <t>Concluído</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +182,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,6 +288,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,10 +303,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,7 +649,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -645,16 +663,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="12">
         <v>46006</v>
       </c>
     </row>
@@ -679,22 +697,22 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
@@ -730,7 +748,9 @@
       <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="18">
+        <v>45991</v>
+      </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
@@ -743,7 +763,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="8" t="str">
-        <f>$D$5</f>
+        <f t="shared" ref="D6:D13" si="0">$D$5</f>
         <v>Pendente</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -762,7 +782,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="8" t="str">
-        <f>$D$5</f>
+        <f t="shared" si="0"/>
         <v>Pendente</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -771,23 +791,22 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8" t="str">
-        <f>$D$5</f>
-        <v>Pendente</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
@@ -800,7 +819,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="8" t="str">
-        <f>$D$5</f>
+        <f t="shared" si="0"/>
         <v>Pendente</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -819,7 +838,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="8" t="str">
-        <f>$D$5</f>
+        <f t="shared" si="0"/>
         <v>Pendente</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -838,7 +857,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="8" t="str">
-        <f>$D$5</f>
+        <f t="shared" si="0"/>
         <v>Pendente</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -857,7 +876,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="8" t="str">
-        <f>$D$5</f>
+        <f t="shared" si="0"/>
         <v>Pendente</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -876,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="8" t="str">
-        <f>$D$5</f>
+        <f t="shared" si="0"/>
         <v>Pendente</v>
       </c>
       <c r="E13" s="8" t="s">

--- a/Backlog Kairos.xlsx
+++ b/Backlog Kairos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.santos_sankh\Desktop\kairos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE063E5-5DD4-44A7-92F1-920C44582574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02072720-FCB4-4852-B638-59EFB7A3824F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BBEEEC4-CEBE-45CD-B774-85F745F54761}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>BACKLOG KAIROS SYSTEM</t>
   </si>
@@ -294,6 +294,15 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -301,15 +310,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,7 +649,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -663,12 +663,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="11" t="s">
         <v>30</v>
       </c>
@@ -697,22 +697,22 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
@@ -748,7 +748,7 @@
       <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="15">
         <v>45991</v>
       </c>
     </row>
@@ -791,22 +791,22 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
@@ -866,23 +866,22 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Pendente</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="8">

--- a/Backlog Kairos.xlsx
+++ b/Backlog Kairos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.santos_sankh\Desktop\kairos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02072720-FCB4-4852-B638-59EFB7A3824F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CFB915-3856-4BEE-9F0D-EE7AAD365A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BBEEEC4-CEBE-45CD-B774-85F745F54761}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>BACKLOG KAIROS SYSTEM</t>
   </si>
@@ -141,13 +141,19 @@
   </si>
   <si>
     <t>Concluído</t>
+  </si>
+  <si>
+    <t>Pacotes</t>
+  </si>
+  <si>
+    <t>Fazer com que seja possível incluir produtos nos pacotes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +173,14 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,6 +324,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,7 +666,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,15 +920,21 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>

--- a/Backlog Kairos.xlsx
+++ b/Backlog Kairos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.santos_sankh\Desktop\kairos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CFB915-3856-4BEE-9F0D-EE7AAD365A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFBB445-D6A9-4B4E-83C3-7705448C9CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BBEEEC4-CEBE-45CD-B774-85F745F54761}"/>
   </bookViews>
@@ -666,7 +666,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Backlog Kairos.xlsx
+++ b/Backlog Kairos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.santos_sankh\Desktop\kairos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFBB445-D6A9-4B4E-83C3-7705448C9CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A646F3A-9625-4650-979A-95DA3EB27FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BBEEEC4-CEBE-45CD-B774-85F745F54761}"/>
   </bookViews>

--- a/Backlog Kairos.xlsx
+++ b/Backlog Kairos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.santos_sankh\Desktop\kairos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A646F3A-9625-4650-979A-95DA3EB27FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CC9ABC-9E84-4129-8410-6F7C5AA91F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BBEEEC4-CEBE-45CD-B774-85F745F54761}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>BACKLOG KAIROS SYSTEM</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Fazer com que seja possível incluir produtos nos pacotes</t>
+  </si>
+  <si>
+    <t>Andamento</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,6 +320,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,8 +332,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,7 +672,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,12 +686,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="11" t="s">
         <v>30</v>
       </c>
@@ -732,22 +738,22 @@
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
@@ -760,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>15</v>
@@ -779,9 +785,8 @@
       <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8" t="str">
-        <f t="shared" ref="D6:D13" si="0">$D$5</f>
-        <v>Pendente</v>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>15</v>
@@ -789,23 +794,22 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Pendente</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
@@ -836,8 +840,8 @@
         <v>24</v>
       </c>
       <c r="D9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Pendente</v>
+        <f t="shared" ref="D6:D13" si="0">$D$5</f>
+        <v>Andamento</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>19</v>
@@ -854,9 +858,8 @@
       <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Pendente</v>
+      <c r="D10" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>19</v>
@@ -873,9 +876,8 @@
       <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Pendente</v>
+      <c r="D11" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>19</v>
@@ -901,23 +903,22 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Pendente</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
@@ -934,7 +935,7 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>

--- a/Backlog Kairos.xlsx
+++ b/Backlog Kairos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.santos_sankh\Desktop\kairos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CC9ABC-9E84-4129-8410-6F7C5AA91F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B332AF-F2AD-4DF2-97A8-05249F3463B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BBEEEC4-CEBE-45CD-B774-85F745F54761}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>BACKLOG KAIROS SYSTEM</t>
   </si>
@@ -273,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,9 +302,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -323,6 +320,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,9 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,7 +669,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -692,10 +689,10 @@
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="11">
         <v>46006</v>
       </c>
     </row>
@@ -720,40 +717,40 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
@@ -771,7 +768,7 @@
       <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>45991</v>
       </c>
     </row>
@@ -794,77 +791,76 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8" t="str">
-        <f t="shared" ref="D6:D13" si="0">$D$5</f>
-        <v>Andamento</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
@@ -885,40 +881,40 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
@@ -935,7 +931,7 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>

--- a/Backlog Kairos.xlsx
+++ b/Backlog Kairos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.santos_sankh\Desktop\kairos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B332AF-F2AD-4DF2-97A8-05249F3463B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3875BFB5-06FC-4D76-8E29-339D2309BEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BBEEEC4-CEBE-45CD-B774-85F745F54761}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="20640" windowHeight="11040" xr2:uid="{7BBEEEC4-CEBE-45CD-B774-85F745F54761}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>BACKLOG KAIROS SYSTEM</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Andamento</t>
+  </si>
+  <si>
+    <t>Sistema Completo</t>
+  </si>
+  <si>
+    <t>Criar Gameficação</t>
   </si>
 </sst>
 </file>
@@ -669,7 +675,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -863,22 +869,22 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
@@ -917,25 +923,35 @@
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
